--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N2">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O2">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P2">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q2">
-        <v>31.11718030240948</v>
+        <v>44.64508363379423</v>
       </c>
       <c r="R2">
-        <v>31.11718030240948</v>
+        <v>401.805752704148</v>
       </c>
       <c r="S2">
-        <v>0.001013249309498623</v>
+        <v>0.001315815816722192</v>
       </c>
       <c r="T2">
-        <v>0.001013249309498623</v>
+        <v>0.001315815816722192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N3">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P3">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q3">
-        <v>51.74436331102543</v>
+        <v>62.93419259177867</v>
       </c>
       <c r="R3">
-        <v>51.74436331102543</v>
+        <v>566.4077333260079</v>
       </c>
       <c r="S3">
-        <v>0.001684919388126006</v>
+        <v>0.001854847147429686</v>
       </c>
       <c r="T3">
-        <v>0.001684919388126006</v>
+        <v>0.001854847147429686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N4">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O4">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P4">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q4">
-        <v>207.7374954944669</v>
+        <v>268.2435419000809</v>
       </c>
       <c r="R4">
-        <v>207.7374954944669</v>
+        <v>2414.191877100728</v>
       </c>
       <c r="S4">
-        <v>0.006764426333656042</v>
+        <v>0.00790588943814936</v>
       </c>
       <c r="T4">
-        <v>0.006764426333656042</v>
+        <v>0.00790588943814936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N5">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O5">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P5">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q5">
-        <v>8.881101576039319</v>
+        <v>22.42031517407245</v>
       </c>
       <c r="R5">
-        <v>8.881101576039319</v>
+        <v>201.782836566652</v>
       </c>
       <c r="S5">
-        <v>0.0002891897643698832</v>
+        <v>0.0006607895633912583</v>
       </c>
       <c r="T5">
-        <v>0.0002891897643698832</v>
+        <v>0.0006607895633912583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N6">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O6">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P6">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q6">
-        <v>3086.656567813619</v>
+        <v>3663.065073486448</v>
       </c>
       <c r="R6">
-        <v>3086.656567813619</v>
+        <v>32967.58566137803</v>
       </c>
       <c r="S6">
-        <v>0.1005088701997322</v>
+        <v>0.1079608003629689</v>
       </c>
       <c r="T6">
-        <v>0.1005088701997322</v>
+        <v>0.1079608003629689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N7">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P7">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q7">
-        <v>5132.761944016612</v>
+        <v>5163.660229690153</v>
       </c>
       <c r="R7">
-        <v>5132.761944016612</v>
+        <v>46472.94206721138</v>
       </c>
       <c r="S7">
-        <v>0.1671349217715891</v>
+        <v>0.1521875478638949</v>
       </c>
       <c r="T7">
-        <v>0.1671349217715891</v>
+        <v>0.152187547863895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N8">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O8">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P8">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q8">
-        <v>20606.43987075839</v>
+        <v>22008.99784581673</v>
       </c>
       <c r="R8">
-        <v>20606.43987075839</v>
+        <v>198080.9806123506</v>
       </c>
       <c r="S8">
-        <v>0.6709946327834233</v>
+        <v>0.6486668882351274</v>
       </c>
       <c r="T8">
-        <v>0.6709946327834233</v>
+        <v>0.6486668882351275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N9">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O9">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P9">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q9">
-        <v>880.9574081806827</v>
+        <v>1839.554700453886</v>
       </c>
       <c r="R9">
-        <v>880.9574081806827</v>
+        <v>16555.99230408497</v>
       </c>
       <c r="S9">
-        <v>0.02868606592441329</v>
+        <v>0.05421683584327886</v>
       </c>
       <c r="T9">
-        <v>0.02868606592441329</v>
+        <v>0.05421683584327887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N10">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O10">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P10">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q10">
-        <v>25.15966182438314</v>
+        <v>39.15283884613979</v>
       </c>
       <c r="R10">
-        <v>25.15966182438314</v>
+        <v>352.375549615258</v>
       </c>
       <c r="S10">
-        <v>0.0008192583557707857</v>
+        <v>0.001153943960457253</v>
       </c>
       <c r="T10">
-        <v>0.0008192583557707857</v>
+        <v>0.001153943960457253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N11">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O11">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P11">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q11">
-        <v>41.83768161418568</v>
+        <v>55.19201891678534</v>
       </c>
       <c r="R11">
-        <v>41.83768161418568</v>
+        <v>496.728170251068</v>
       </c>
       <c r="S11">
-        <v>0.001362334298757601</v>
+        <v>0.001626663577186464</v>
       </c>
       <c r="T11">
-        <v>0.001362334298757601</v>
+        <v>0.001626663577186465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N12">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O12">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P12">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q12">
-        <v>167.9652553377529</v>
+        <v>235.2441817262432</v>
       </c>
       <c r="R12">
-        <v>167.9652553377529</v>
+        <v>2117.197635536188</v>
       </c>
       <c r="S12">
-        <v>0.005469347715209261</v>
+        <v>0.006933305750892463</v>
       </c>
       <c r="T12">
-        <v>0.005469347715209261</v>
+        <v>0.006933305750892464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N13">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O13">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P13">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q13">
-        <v>7.180776346365915</v>
+        <v>19.66216468739356</v>
       </c>
       <c r="R13">
-        <v>7.180776346365915</v>
+        <v>176.959482186542</v>
       </c>
       <c r="S13">
-        <v>0.0002338231357696607</v>
+        <v>0.0005794991336310383</v>
       </c>
       <c r="T13">
-        <v>0.0002338231357696607</v>
+        <v>0.0005794991336310384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N14">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O14">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P14">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q14">
-        <v>47.98814487981106</v>
+        <v>56.81621558670778</v>
       </c>
       <c r="R14">
-        <v>47.98814487981106</v>
+        <v>511.3459402803699</v>
       </c>
       <c r="S14">
-        <v>0.001562607993109946</v>
+        <v>0.001674533207922999</v>
       </c>
       <c r="T14">
-        <v>0.001562607993109946</v>
+        <v>0.001674533207922999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N15">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O15">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P15">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q15">
-        <v>79.79887570631824</v>
+        <v>80.09129702611332</v>
       </c>
       <c r="R15">
-        <v>79.79887570631824</v>
+        <v>720.8216732350199</v>
       </c>
       <c r="S15">
-        <v>0.002598440955202245</v>
+        <v>0.002360515130247918</v>
       </c>
       <c r="T15">
-        <v>0.002598440955202245</v>
+        <v>0.002360515130247919</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N16">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O16">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P16">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q16">
-        <v>320.3676211621801</v>
+        <v>341.3720317190911</v>
       </c>
       <c r="R16">
-        <v>320.3676211621801</v>
+        <v>3072.34828547182</v>
       </c>
       <c r="S16">
-        <v>0.01043193077822542</v>
+        <v>0.01006119111360696</v>
       </c>
       <c r="T16">
-        <v>0.01043193077822542</v>
+        <v>0.01006119111360696</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N17">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O17">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P17">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q17">
-        <v>13.69621491990688</v>
+        <v>28.53253609962556</v>
       </c>
       <c r="R17">
-        <v>13.69621491990688</v>
+        <v>256.79282489663</v>
       </c>
       <c r="S17">
-        <v>0.0004459812931464678</v>
+        <v>0.0008409338550922889</v>
       </c>
       <c r="T17">
-        <v>0.0004459812931464678</v>
+        <v>0.0008409338550922889</v>
       </c>
     </row>
   </sheetData>
